--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Serie</t>
   </si>
@@ -53,6 +53,39 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
 </sst>
 </file>
@@ -410,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +598,235 @@
         <v>1.43</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>27000</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>35000</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>8000</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>31000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>22000</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>8000</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>37000</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>27000</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>21000</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>19000</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Serie</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -827,6 +830,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Serie</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -446,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +856,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Serie</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,6 +926,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Serie</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,6 +987,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Serie</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,6 +1012,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Serie</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,6 +1032,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/6 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Serie</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,6 +1068,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
